--- a/templates/Production Sheet.xlsx
+++ b/templates/Production Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16644" windowHeight="10560"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Quantity:</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
     <t>Due date:</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
     <t>Order #:</t>
   </si>
   <si>
+    <t>Type:</t>
+  </si>
+  <si>
     <t>KT:</t>
   </si>
   <si>
@@ -74,7 +74,7 @@
     <t>Polish:</t>
   </si>
   <si>
-    <t>Type:</t>
+    <t>Color:</t>
   </si>
   <si>
     <t>Rhodium:</t>
@@ -135,7 +135,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -145,21 +145,6 @@
     </font>
     <font>
       <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -324,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,13 +330,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,19 +648,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,142 +678,138 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -816,29 +818,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -900,55 +907,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>18415</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3592195" y="7620"/>
-          <a:ext cx="2116455" cy="597535"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1209,429 +1167,417 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H13"/>
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="6.92361111111111" customWidth="1"/>
-    <col min="3" max="3" width="5.59722222222222" customWidth="1"/>
-    <col min="5" max="5" width="8.20833333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.32638888888889" customWidth="1"/>
-    <col min="7" max="7" width="6.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.3888888888889" customWidth="1"/>
+    <col min="3" max="3" width="7.3125" customWidth="1"/>
+    <col min="4" max="4" width="10.6458333333333" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="7" width="6.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="5.08333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.2" spans="1:8">
+    <row r="1" ht="74" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" ht="19" customHeight="1" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="19.05" customHeight="1" spans="1:8">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="C11" s="11"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" ht="14" customHeight="1" spans="1:8">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" ht="21" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="3"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:H1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A18:H23"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E2:H13"/>
+    <mergeCell ref="E2:H16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="366" scale="60" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>